--- a/ParametricGraph/bench4x.xlsx
+++ b/ParametricGraph/bench4x.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 

--- a/ParametricGraph/bench4x.xlsx
+++ b/ParametricGraph/bench4x.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Параметрическая функция</t>
   </si>
@@ -36,22 +36,10 @@
     <t>Прибор 1,2</t>
   </si>
   <si>
-    <t>Прибор 1,3</t>
-  </si>
-  <si>
-    <t>Прибор 1,4</t>
-  </si>
-  <si>
     <t>Прибор 2,1</t>
   </si>
   <si>
     <t>Прибор 2,2</t>
-  </si>
-  <si>
-    <t>Прибор 2,3</t>
-  </si>
-  <si>
-    <t>Прибор 2,4</t>
   </si>
 </sst>
 </file>
@@ -387,34 +375,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30">
+    <row r="1" spans="1:15" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
@@ -427,26 +414,22 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>4040</v>
       </c>
       <c r="B2">
-        <f>11*11*11*11*11*11*11*11</f>
-        <v>214358881</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <f>21*10*21*10</f>
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -459,303 +442,233 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>-10</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-10</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>-9</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6">
+        <v>-9</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>-8</v>
+      </c>
+      <c r="B7">
+        <v>0.2</v>
+      </c>
+      <c r="C7">
+        <v>-8</v>
+      </c>
+      <c r="D7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>-7</v>
+      </c>
+      <c r="B8">
+        <v>0.3</v>
+      </c>
+      <c r="C8">
+        <v>-7</v>
+      </c>
+      <c r="D8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>-6</v>
+      </c>
+      <c r="B9">
+        <v>0.4</v>
+      </c>
+      <c r="C9">
+        <v>-6</v>
+      </c>
+      <c r="D9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>-5</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10">
+        <v>-5</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>-4</v>
+      </c>
+      <c r="B11">
+        <v>0.6</v>
+      </c>
+      <c r="C11">
+        <v>-4</v>
+      </c>
+      <c r="D11">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>-3</v>
+      </c>
+      <c r="B12">
+        <v>0.7</v>
+      </c>
+      <c r="C12">
+        <v>-3</v>
+      </c>
+      <c r="D12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>-2</v>
+      </c>
+      <c r="B13">
+        <v>0.8</v>
+      </c>
+      <c r="C13">
+        <v>-2</v>
+      </c>
+      <c r="D13">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>-1</v>
+      </c>
+      <c r="B14">
+        <v>0.9</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="C23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5">
-        <v>-5</v>
-      </c>
-      <c r="B5">
-        <v>-5</v>
-      </c>
-      <c r="C5">
-        <v>-0.5</v>
-      </c>
-      <c r="D5">
-        <v>-0.5</v>
-      </c>
-      <c r="E5">
-        <v>-5</v>
-      </c>
-      <c r="F5">
-        <v>-5</v>
-      </c>
-      <c r="G5">
-        <v>-0.5</v>
-      </c>
-      <c r="H5">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6">
-        <v>-4</v>
-      </c>
-      <c r="B6">
-        <v>-4</v>
-      </c>
-      <c r="C6">
-        <v>-0.4</v>
-      </c>
-      <c r="D6">
-        <v>-0.4</v>
-      </c>
-      <c r="E6">
-        <v>-4</v>
-      </c>
-      <c r="F6">
-        <v>-4</v>
-      </c>
-      <c r="G6">
-        <v>-0.4</v>
-      </c>
-      <c r="H6">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7">
-        <v>-3</v>
-      </c>
-      <c r="B7">
-        <v>-3</v>
-      </c>
-      <c r="C7">
-        <v>-0.3</v>
-      </c>
-      <c r="D7">
-        <v>-0.3</v>
-      </c>
-      <c r="E7">
-        <v>-3</v>
-      </c>
-      <c r="F7">
-        <v>-3</v>
-      </c>
-      <c r="G7">
-        <v>-0.3</v>
-      </c>
-      <c r="H7">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8">
-        <v>-2</v>
-      </c>
-      <c r="B8">
-        <v>-2</v>
-      </c>
-      <c r="C8">
-        <v>-0.2</v>
-      </c>
-      <c r="D8">
-        <v>-0.2</v>
-      </c>
-      <c r="E8">
-        <v>-2</v>
-      </c>
-      <c r="F8">
-        <v>-2</v>
-      </c>
-      <c r="G8">
-        <v>-0.2</v>
-      </c>
-      <c r="H8">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9">
-        <v>-1</v>
-      </c>
-      <c r="B9">
-        <v>-1</v>
-      </c>
-      <c r="C9">
-        <v>-0.1</v>
-      </c>
-      <c r="D9">
-        <v>-0.1</v>
-      </c>
-      <c r="E9">
-        <v>-1</v>
-      </c>
-      <c r="F9">
-        <v>-1</v>
-      </c>
-      <c r="G9">
-        <v>-0.1</v>
-      </c>
-      <c r="H9">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0.1</v>
-      </c>
-      <c r="D11">
-        <v>0.1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.1</v>
-      </c>
-      <c r="H11">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>0.2</v>
-      </c>
-      <c r="D12">
-        <v>0.2</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>0.2</v>
-      </c>
-      <c r="H12">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>0.3</v>
-      </c>
-      <c r="D13">
-        <v>0.3</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>0.3</v>
-      </c>
-      <c r="H13">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>0.4</v>
-      </c>
-      <c r="D14">
-        <v>0.4</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14">
-        <v>0.4</v>
-      </c>
-      <c r="H14">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>0.5</v>
-      </c>
-      <c r="D15">
-        <v>0.5</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>0.5</v>
-      </c>
-      <c r="H15">
-        <v>0.5</v>
+      <c r="C25">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ParametricGraph/bench4x.xlsx
+++ b/ParametricGraph/bench4x.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Параметрическая функция</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Прибор 2,2</t>
+  </si>
+  <si>
+    <t>Максимизация</t>
   </si>
 </sst>
 </file>
@@ -378,7 +381,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -401,6 +404,9 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -422,6 +428,9 @@
       <c r="B2">
         <f>21*10*21*10</f>
         <v>44100</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15">
